--- a/data/filtered_applied_countries.xlsx
+++ b/data/filtered_applied_countries.xlsx
@@ -1738,13 +1738,13 @@
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D76" t="s">
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77">
@@ -1789,13 +1789,13 @@
         <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D79" t="s">
         <v>6</v>
       </c>
       <c r="E79" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
@@ -1806,30 +1806,30 @@
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D80" t="s">
         <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D81" t="s">
         <v>6</v>
       </c>
       <c r="E81" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82">
@@ -1857,13 +1857,13 @@
         <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D83" t="s">
         <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84">
@@ -1874,13 +1874,13 @@
         <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D84" t="s">
         <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85">
@@ -1976,13 +1976,13 @@
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D90" t="s">
         <v>6</v>
       </c>
       <c r="E90" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91">
@@ -1993,13 +1993,13 @@
         <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D91" t="s">
         <v>6</v>
       </c>
       <c r="E91" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
@@ -2010,13 +2010,13 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
         <v>6</v>
       </c>
       <c r="E92" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93">
@@ -2027,13 +2027,13 @@
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D93" t="s">
         <v>6</v>
       </c>
       <c r="E93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
@@ -2044,13 +2044,13 @@
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D94" t="s">
         <v>6</v>
       </c>
       <c r="E94" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
@@ -2078,13 +2078,13 @@
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D96" t="s">
         <v>6</v>
       </c>
       <c r="E96" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
@@ -2095,13 +2095,13 @@
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D97" t="s">
         <v>6</v>
       </c>
       <c r="E97" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
@@ -2231,13 +2231,13 @@
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D105" t="s">
         <v>6</v>
       </c>
       <c r="E105" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="106">
@@ -2282,13 +2282,13 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D108" t="s">
         <v>6</v>
       </c>
       <c r="E108" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109">
@@ -2333,13 +2333,13 @@
         <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D111" t="s">
         <v>6</v>
       </c>
       <c r="E111" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112">
@@ -2350,13 +2350,13 @@
         <v>6</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D112" t="s">
         <v>6</v>
       </c>
       <c r="E112" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="113">
@@ -2367,13 +2367,13 @@
         <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D113" t="s">
         <v>6</v>
       </c>
       <c r="E113" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114">
@@ -2384,13 +2384,13 @@
         <v>6</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D114" t="s">
         <v>6</v>
       </c>
       <c r="E114" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="115">
@@ -2401,13 +2401,13 @@
         <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D115" t="s">
         <v>6</v>
       </c>
       <c r="E115" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116">
@@ -2418,13 +2418,13 @@
         <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D116" t="s">
         <v>6</v>
       </c>
       <c r="E116" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117">
@@ -2435,13 +2435,13 @@
         <v>6</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D117" t="s">
         <v>6</v>
       </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
@@ -2452,13 +2452,13 @@
         <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D118" t="s">
         <v>6</v>
       </c>
       <c r="E118" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119">
@@ -2469,13 +2469,13 @@
         <v>6</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D119" t="s">
         <v>6</v>
       </c>
       <c r="E119" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120">
@@ -2486,52 +2486,52 @@
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D120" t="s">
         <v>6</v>
       </c>
       <c r="E120" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D121" t="s">
         <v>6</v>
       </c>
       <c r="E121" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D122" t="s">
         <v>6</v>
       </c>
       <c r="E122" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -2548,7 +2548,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -2588,13 +2588,13 @@
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D126" t="s">
         <v>6</v>
       </c>
       <c r="E126" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127">
@@ -2611,74 +2611,6 @@
         <v>6</v>
       </c>
       <c r="E127" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>35</v>
-      </c>
-      <c r="B128" t="s">
-        <v>6</v>
-      </c>
-      <c r="C128" t="s">
-        <v>23</v>
-      </c>
-      <c r="D128" t="s">
-        <v>6</v>
-      </c>
-      <c r="E128" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>35</v>
-      </c>
-      <c r="B129" t="s">
-        <v>6</v>
-      </c>
-      <c r="C129" t="s">
-        <v>23</v>
-      </c>
-      <c r="D129" t="s">
-        <v>6</v>
-      </c>
-      <c r="E129" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>35</v>
-      </c>
-      <c r="B130" t="s">
-        <v>6</v>
-      </c>
-      <c r="C130" t="s">
-        <v>23</v>
-      </c>
-      <c r="D130" t="s">
-        <v>6</v>
-      </c>
-      <c r="E130" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>35</v>
-      </c>
-      <c r="B131" t="s">
-        <v>6</v>
-      </c>
-      <c r="C131" t="s">
-        <v>23</v>
-      </c>
-      <c r="D131" t="s">
-        <v>6</v>
-      </c>
-      <c r="E131" t="s">
         <v>23</v>
       </c>
     </row>
